--- a/data/trans_bre/P22_R3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P22_R3-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.1651257227362385</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.216253685747066</v>
+        <v>0.2162536857470661</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8782700450563616</v>
@@ -649,7 +649,7 @@
         <v>-0.1369944962895902</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3792064883599817</v>
+        <v>0.3792064883599819</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09119728831612128</v>
+        <v>0.2114276854749607</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.057353100082017</v>
+        <v>-0.9269073917836355</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.252273333590201</v>
+        <v>-1.176564154656503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6154680411995295</v>
+        <v>-0.6476565329664339</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0284102933676579</v>
+        <v>0.06910960059949722</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5075189670383328</v>
+        <v>-0.5003926044725653</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6983170449155486</v>
+        <v>-0.6617440701338738</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.605256796939792</v>
+        <v>-0.6730893631281725</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.434119649042379</v>
+        <v>2.507789438377234</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.108967411129959</v>
+        <v>1.179251622537581</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.819641466327759</v>
+        <v>0.7958619949165974</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8699904204191786</v>
+        <v>0.9197744654268483</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.392687047295353</v>
+        <v>2.307480191366475</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.382688613519044</v>
+        <v>1.43091243116522</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.352659056991344</v>
+        <v>1.329755230661485</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5.602093831592825</v>
+        <v>5.546377743052532</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>-0.2774261220863032</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.4721018452504536</v>
+        <v>-0.4721018452504535</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2900515629060642</v>
+        <v>-0.3394665260247312</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.178264903014533</v>
+        <v>-2.059071065779728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.013795658472324</v>
+        <v>-2.009563854050539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.56857817334115</v>
+        <v>-2.53405468274836</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09978484676424723</v>
+        <v>-0.09426894536097918</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.442692575530779</v>
+        <v>-0.4346295819403515</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5048369492379029</v>
+        <v>-0.510007734999515</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6480695287170081</v>
+        <v>-0.6473855952380533</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.299800836849166</v>
+        <v>2.18746611138145</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7908173986364697</v>
+        <v>0.6128578367612547</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2787875646335855</v>
+        <v>0.1254396804866605</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.5405388788807127</v>
+        <v>-0.4969426707615556</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.004258499972566</v>
+        <v>0.9651078221246484</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2452872306647415</v>
+        <v>0.1989968414948948</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1147645030689852</v>
+        <v>0.07852440240058792</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2143969422201561</v>
+        <v>-0.1974057165398238</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.758284324322359</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.342739231718428</v>
+        <v>0.3427392317184294</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1801723448014452</v>
@@ -849,7 +849,7 @@
         <v>-0.1961017219266489</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.04399647855331196</v>
+        <v>0.04399647855331214</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.904933528575839</v>
+        <v>-6.055873346774312</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.324664641217705</v>
+        <v>-9.219207931082748</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.842582090236252</v>
+        <v>-7.231638832104769</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.686556902915988</v>
+        <v>-2.680552541503401</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4092212595864592</v>
+        <v>-0.4423307864374154</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5690548145868097</v>
+        <v>-0.5569823772788935</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4232887334026744</v>
+        <v>-0.4318365564090984</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2798306189508006</v>
+        <v>-0.2879439809951566</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.714926271360383</v>
+        <v>1.852959565764463</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01158501620707245</v>
+        <v>0.7075787752807723</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.254783563079453</v>
+        <v>1.130901691177769</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.995495304547696</v>
+        <v>2.837023688777515</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1753898480862464</v>
+        <v>0.1875825544589516</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01767734330990047</v>
+        <v>0.08497455489662581</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1133275119020531</v>
+        <v>0.1078476675017708</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4711570216377562</v>
+        <v>0.4601149527795232</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-1.199006052854432</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.9278914393656946</v>
+        <v>-0.927891439365695</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08191414670524207</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5804303668845634</v>
+        <v>-0.6701655862730012</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.233984072775694</v>
+        <v>-2.228835565020808</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.226408709382472</v>
+        <v>-2.301837284815446</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.770138748774345</v>
+        <v>-1.782047432680244</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1335386152345145</v>
+        <v>-0.1482585226059152</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4258935785438928</v>
+        <v>-0.4240355711637865</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4311580327775206</v>
+        <v>-0.437239178221557</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4091288015192639</v>
+        <v>-0.4056195284001325</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.309571410050719</v>
+        <v>1.324012501011392</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.1490663173952752</v>
+        <v>-0.08326204082396549</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.3026049400491043</v>
+        <v>-0.2757053694677872</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.1072739285036986</v>
+        <v>-0.07397223157843462</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3881461253845174</v>
+        <v>0.3887141802624553</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02562406612427324</v>
+        <v>-0.02283664183316747</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.07126229695115269</v>
+        <v>-0.0680058485324336</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.03095175459224394</v>
+        <v>-0.00502167742628083</v>
       </c>
     </row>
     <row r="16">
